--- a/results/InceptionNet/AppliancesEnergy/pruning_quant-static_low-rank_quant-qat/0_pruning_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/pruning_quant-static_low-rank_quant-qat/0_pruning_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.013</v>
+        <v>0.019</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.742</v>
+        <v>-1.869</v>
       </c>
       <c r="D4" t="n">
-        <v>-13500</v>
+        <v>-9936.84</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.023</v>
+        <v>0.035</v>
       </c>
       <c r="C5" t="n">
-        <v>0.021</v>
+        <v>0.001</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.699999999999999</v>
+        <v>-97.14</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.142</v>
+        <v>2.625</v>
       </c>
       <c r="C6" t="n">
-        <v>8.725</v>
+        <v>7.676</v>
       </c>
       <c r="D6" t="n">
-        <v>177.69</v>
+        <v>192.42</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.198</v>
+        <v>0.184</v>
       </c>
       <c r="C7" t="n">
-        <v>0.571</v>
+        <v>0.531</v>
       </c>
       <c r="D7" t="n">
-        <v>188.38</v>
+        <v>188.59</v>
       </c>
     </row>
     <row r="8">
@@ -573,10 +573,10 @@
         <v>10.979</v>
       </c>
       <c r="C8" t="n">
-        <v>18.001</v>
+        <v>18.901</v>
       </c>
       <c r="D8" t="n">
-        <v>63.96</v>
+        <v>72.16</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.201</v>
+        <v>2.217</v>
       </c>
       <c r="C9" t="n">
-        <v>8.266999999999999</v>
+        <v>7.384</v>
       </c>
       <c r="D9" t="n">
-        <v>275.6</v>
+        <v>233.06</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.043</v>
+        <v>11.641</v>
       </c>
       <c r="C10" t="n">
-        <v>92.645</v>
+        <v>70.736</v>
       </c>
       <c r="D10" t="n">
-        <v>413.47</v>
+        <v>507.65</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.062</v>
+        <v>0.045</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.546</v>
       </c>
       <c r="D11" t="n">
-        <v>1008.06</v>
+        <v>1113.33</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.06900000000000001</v>
+        <v>0.015</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.49</v>
+        <v>-4.983</v>
       </c>
       <c r="D12" t="n">
-        <v>6407.25</v>
+        <v>-33320</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.248</v>
+        <v>3.412</v>
       </c>
       <c r="C13" t="n">
-        <v>9.625</v>
+        <v>8.41</v>
       </c>
       <c r="D13" t="n">
-        <v>126.58</v>
+        <v>146.48</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.874121993780136</v>
+        <v>4.919889552252633</v>
       </c>
       <c r="C4" t="n">
-        <v>3.292300000786781</v>
+        <v>5.097184010914394</v>
       </c>
       <c r="D4" t="n">
-        <v>-15.02</v>
+        <v>3.6</v>
       </c>
       <c r="E4" t="n">
-        <v>1.116124222522789</v>
+        <v>1.717619083775482</v>
       </c>
       <c r="F4" t="n">
-        <v>1.16149243537108</v>
+        <v>1.875769207228854</v>
       </c>
       <c r="G4" t="n">
-        <v>4.06</v>
+        <v>9.210000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.684915613735975</v>
+        <v>2.468988944513419</v>
       </c>
       <c r="C6" t="n">
-        <v>5.270133244135995</v>
+        <v>2.42811279294672</v>
       </c>
       <c r="D6" t="n">
-        <v>12.49</v>
+        <v>-1.66</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8643719206601188</v>
+        <v>0.973432817470647</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9671664734931512</v>
+        <v>0.6737922804191881</v>
       </c>
       <c r="G6" t="n">
-        <v>11.89</v>
+        <v>-30.78</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/pruning_quant-static_low-rank_quant-qat/0_pruning_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/pruning_quant-static_low-rank_quant-qat/0_pruning_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.019</v>
+        <v>-0.03</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.869</v>
+        <v>-0.9419999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>-9936.84</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.035</v>
+        <v>0.019</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001</v>
+        <v>-0.034</v>
       </c>
       <c r="D5" t="n">
-        <v>-97.14</v>
+        <v>-278.95</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.625</v>
+        <v>2.756</v>
       </c>
       <c r="C6" t="n">
-        <v>7.676</v>
+        <v>5.197</v>
       </c>
       <c r="D6" t="n">
-        <v>192.42</v>
+        <v>88.56999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.184</v>
+        <v>0.209</v>
       </c>
       <c r="C7" t="n">
-        <v>0.531</v>
+        <v>0.341</v>
       </c>
       <c r="D7" t="n">
-        <v>188.59</v>
+        <v>63.16</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.979</v>
+        <v>8.888</v>
       </c>
       <c r="C8" t="n">
-        <v>18.901</v>
+        <v>16.072</v>
       </c>
       <c r="D8" t="n">
-        <v>72.16</v>
+        <v>80.83</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.217</v>
+        <v>2.651</v>
       </c>
       <c r="C9" t="n">
-        <v>7.384</v>
+        <v>4.802</v>
       </c>
       <c r="D9" t="n">
-        <v>233.06</v>
+        <v>81.14</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11.641</v>
+        <v>11.837</v>
       </c>
       <c r="C10" t="n">
-        <v>70.736</v>
+        <v>39.229</v>
       </c>
       <c r="D10" t="n">
-        <v>507.65</v>
+        <v>231.41</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>0.546</v>
+        <v>0.218</v>
       </c>
       <c r="D11" t="n">
-        <v>1113.33</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.015</v>
+        <v>-0.001</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.983</v>
+        <v>-2.318</v>
       </c>
       <c r="D12" t="n">
-        <v>-33320</v>
+        <v>231700</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.412</v>
+        <v>3.441</v>
       </c>
       <c r="C13" t="n">
-        <v>8.41</v>
+        <v>6.263</v>
       </c>
       <c r="D13" t="n">
-        <v>146.48</v>
+        <v>82.01000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.919889552252633</v>
+        <v>3.056311613037473</v>
       </c>
       <c r="C4" t="n">
-        <v>5.097184010914394</v>
+        <v>2.949960385050093</v>
       </c>
       <c r="D4" t="n">
-        <v>3.6</v>
+        <v>-3.48</v>
       </c>
       <c r="E4" t="n">
-        <v>1.717619083775482</v>
+        <v>0.9043261178934222</v>
       </c>
       <c r="F4" t="n">
-        <v>1.875769207228854</v>
+        <v>0.2793174385186191</v>
       </c>
       <c r="G4" t="n">
-        <v>9.210000000000001</v>
+        <v>-69.11</v>
       </c>
     </row>
     <row r="5">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.468988944513419</v>
+        <v>3.434829267156525</v>
       </c>
       <c r="C6" t="n">
-        <v>2.42811279294672</v>
+        <v>3.30593077494578</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.66</v>
+        <v>-3.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.973432817470647</v>
+        <v>0.5806321735011654</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6737922804191881</v>
+        <v>0.4072398939371265</v>
       </c>
       <c r="G6" t="n">
-        <v>-30.78</v>
+        <v>-29.86</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/pruning_quant-static_low-rank_quant-qat/0_pruning_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/pruning_quant-static_low-rank_quant-qat/0_pruning_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -686,13 +688,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -707,7 +709,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -722,7 +724,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -784,7 +786,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
